--- a/docs/especificaciones/casos-de-prueba/Casos-de-Prueba-Parte-5.xlsx
+++ b/docs/especificaciones/casos-de-prueba/Casos-de-Prueba-Parte-5.xlsx
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
   <si>
     <t xml:space="preserve">RESULTADO OBTENIDO </t>
   </si>
@@ -236,6 +236,9 @@
     <t>Terminal</t>
   </si>
   <si>
+    <t>Mantenedor de personal</t>
+  </si>
+  <si>
     <t>Jefe de operadores</t>
   </si>
   <si>
@@ -294,6 +297,51 @@
   </si>
   <si>
     <t>Eliminar datos del paciente</t>
+  </si>
+  <si>
+    <t>Búsqueda correcta de personal</t>
+  </si>
+  <si>
+    <t>Búsqueda incorrecta de personal</t>
+  </si>
+  <si>
+    <t>Ingreso correcto de personal</t>
+  </si>
+  <si>
+    <t>Ingreso incorrecto de personal</t>
+  </si>
+  <si>
+    <t>Actualización correcta de personal</t>
+  </si>
+  <si>
+    <t>Actualización incorrecta de personal</t>
+  </si>
+  <si>
+    <t>Eliminación correcta de personal</t>
+  </si>
+  <si>
+    <t>Ingresar el Rut de un personal ingresado en el sistema</t>
+  </si>
+  <si>
+    <t>Cargar personal y modificar los campos</t>
+  </si>
+  <si>
+    <t>Cargar personal y dejar campos en blanco</t>
+  </si>
+  <si>
+    <t>Cargar personal y eliminarlo</t>
+  </si>
+  <si>
+    <t>Cargar los datos del personal</t>
+  </si>
+  <si>
+    <t>Ingresar datos del personal</t>
+  </si>
+  <si>
+    <t>Actualizar los datos del personal</t>
+  </si>
+  <si>
+    <t>Eliminar datos del personal</t>
   </si>
 </sst>
 </file>
@@ -515,9 +563,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -549,46 +596,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1154,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:M24"/>
+  <dimension ref="B5:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1175,400 +1182,534 @@
   <sheetData>
     <row r="5" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="24"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="15"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="26"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15"/>
     </row>
     <row r="9" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="27">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="16">
         <v>42703</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="28"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="6"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="5"/>
     </row>
     <row r="12" spans="2:13" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="34"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="2" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="I14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="6">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="6">
+        <v>4</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="6">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="2:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="6">
+        <v>6</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="6">
+        <v>7</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="5" t="s">
+      <c r="D20" s="6">
+        <v>8</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B14" s="9" t="s">
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="6">
+        <v>9</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="7">
-        <v>2</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="I21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="5" t="s">
+      <c r="D22" s="6">
+        <v>10</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="9" t="s">
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="6">
+        <v>11</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="7">
-        <v>3</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="I23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="D24" s="6">
+        <v>12</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="5" t="s">
+      <c r="F24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="10"/>
-    </row>
-    <row r="16" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="9" t="s">
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="6">
+        <v>13</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="7">
-        <v>4</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="I25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="5" t="s">
+      <c r="D26" s="6">
         <v>14</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="10"/>
-    </row>
-    <row r="17" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="7">
-        <v>5</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="5" t="s">
+      <c r="E26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="10"/>
-    </row>
-    <row r="18" spans="2:12" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="7">
-        <v>6</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="10"/>
-    </row>
-    <row r="19" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="7">
-        <v>7</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="10"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="9"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="10"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="9"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="10"/>
-    </row>
-    <row r="22" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="16"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="17"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/docs/especificaciones/casos-de-prueba/Casos-de-Prueba-Parte-5.xlsx
+++ b/docs/especificaciones/casos-de-prueba/Casos-de-Prueba-Parte-5.xlsx
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="76">
   <si>
     <t xml:space="preserve">RESULTADO OBTENIDO </t>
   </si>
@@ -342,6 +342,63 @@
   </si>
   <si>
     <t>Eliminar datos del personal</t>
+  </si>
+  <si>
+    <t>Mantenedor de prestación</t>
+  </si>
+  <si>
+    <t>Búsqueda correcta de prestación</t>
+  </si>
+  <si>
+    <t>Búsqueda incorrecta de prestación</t>
+  </si>
+  <si>
+    <t>Ingreso correcto de prestación</t>
+  </si>
+  <si>
+    <t>Ingreso incorrecto de prestación</t>
+  </si>
+  <si>
+    <t>Actualización correcta de prestación</t>
+  </si>
+  <si>
+    <t>Actualización incorrecta de prestación</t>
+  </si>
+  <si>
+    <t>Eliminación correcta de prestación</t>
+  </si>
+  <si>
+    <t>Cargar prestación y modificar los campos</t>
+  </si>
+  <si>
+    <t>Cargar prestación y dejar campos en blanco</t>
+  </si>
+  <si>
+    <t>Ingresar el código de una prestación ingresada en el sistema</t>
+  </si>
+  <si>
+    <t>Ingresar el código de una prestación no ingresada en el sistema</t>
+  </si>
+  <si>
+    <t>Ingresar el Rut de un personal no ingresado en el sistema</t>
+  </si>
+  <si>
+    <t>Ingresar el Rut de un paciente no ingresado en el sistema</t>
+  </si>
+  <si>
+    <t>Cargar prestación y eliminarla</t>
+  </si>
+  <si>
+    <t>Eliminar datos de prestación</t>
+  </si>
+  <si>
+    <t>Actualizar los datos de prestación</t>
+  </si>
+  <si>
+    <t>Ingresar datos de prestación</t>
+  </si>
+  <si>
+    <t>Cargar los datos de prestación</t>
   </si>
 </sst>
 </file>
@@ -1161,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:M26"/>
+  <dimension ref="B5:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:H26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1351,7 +1408,7 @@
         <v>28</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>32</v>
@@ -1508,7 +1565,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B20" s="8" t="s">
         <v>20</v>
       </c>
@@ -1554,7 +1611,7 @@
         <v>43</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>32</v>
@@ -1566,7 +1623,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B22" s="8" t="s">
         <v>20</v>
       </c>
@@ -1710,6 +1767,209 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="6">
+        <v>15</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" spans="2:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="6">
+        <v>16</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="9"/>
+    </row>
+    <row r="29" spans="2:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="6">
+        <v>17</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="6">
+        <v>18</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="9"/>
+    </row>
+    <row r="31" spans="2:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="6">
+        <v>19</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="2:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="6">
+        <v>20</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="9"/>
+    </row>
+    <row r="33" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="6">
+        <v>21</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/docs/especificaciones/casos-de-prueba/Casos-de-Prueba-Parte-5.xlsx
+++ b/docs/especificaciones/casos-de-prueba/Casos-de-Prueba-Parte-5.xlsx
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="93">
   <si>
     <t xml:space="preserve">RESULTADO OBTENIDO </t>
   </si>
@@ -399,6 +399,57 @@
   </si>
   <si>
     <t>Cargar los datos de prestación</t>
+  </si>
+  <si>
+    <t>Mantenedor de equipo</t>
+  </si>
+  <si>
+    <t>Búsqueda correcta de equipo</t>
+  </si>
+  <si>
+    <t>Búsqueda incorrecta de equipo</t>
+  </si>
+  <si>
+    <t>Ingreso correcto de equipo</t>
+  </si>
+  <si>
+    <t>Ingreso incorrecto de equipo</t>
+  </si>
+  <si>
+    <t>Actualización correcta de equipo</t>
+  </si>
+  <si>
+    <t>Actualización incorrecta de equipo</t>
+  </si>
+  <si>
+    <t>Eliminación correcta de equipo</t>
+  </si>
+  <si>
+    <t>Ingresar el nombre de un equipo ingresado en el sistema</t>
+  </si>
+  <si>
+    <t>Ingresar el nombre de un equipo no ingresado en el sistema</t>
+  </si>
+  <si>
+    <t>Cargar equipo y modificar los campos</t>
+  </si>
+  <si>
+    <t>Cargar equipo y dejar campos en blanco</t>
+  </si>
+  <si>
+    <t>Cargar equipo y eliminarlo</t>
+  </si>
+  <si>
+    <t>Cargar los datos del equipo</t>
+  </si>
+  <si>
+    <t>Ingresar datos del equipo</t>
+  </si>
+  <si>
+    <t>Actualizar los datos del equipo</t>
+  </si>
+  <si>
+    <t>Eliminar datos del equipo</t>
   </si>
 </sst>
 </file>
@@ -1218,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:M33"/>
+  <dimension ref="B5:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1970,6 +2021,209 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="9"/>
+    </row>
+    <row r="34" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="6">
+        <v>22</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="9"/>
+    </row>
+    <row r="35" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="6">
+        <v>23</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="9"/>
+    </row>
+    <row r="36" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="6">
+        <v>24</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="9"/>
+    </row>
+    <row r="37" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="6">
+        <v>25</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="9"/>
+    </row>
+    <row r="38" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="6">
+        <v>26</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="6">
+        <v>27</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="9"/>
+    </row>
+    <row r="40" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="6">
+        <v>28</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/docs/especificaciones/casos-de-prueba/Casos-de-Prueba-Parte-5.xlsx
+++ b/docs/especificaciones/casos-de-prueba/Casos-de-Prueba-Parte-5.xlsx
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="105">
   <si>
     <t xml:space="preserve">RESULTADO OBTENIDO </t>
   </si>
@@ -450,6 +450,42 @@
   </si>
   <si>
     <t>Eliminar datos del equipo</t>
+  </si>
+  <si>
+    <t>Log pago de honorarios</t>
+  </si>
+  <si>
+    <t>Cargar un mes con pagos de honorarios</t>
+  </si>
+  <si>
+    <t>Cargar un mes sin pagos de honorarios</t>
+  </si>
+  <si>
+    <t>Mostrar pagos</t>
+  </si>
+  <si>
+    <t>Mostrar que no hay pagos</t>
+  </si>
+  <si>
+    <t>Desplegar lista de pagos</t>
+  </si>
+  <si>
+    <t>Reporte de cajas</t>
+  </si>
+  <si>
+    <t>Mostrar reporte de un operador</t>
+  </si>
+  <si>
+    <t>Buscar día sin reportes</t>
+  </si>
+  <si>
+    <t>Cargar día con cajas abierta</t>
+  </si>
+  <si>
+    <t>Cargar día sin cajas abierta</t>
+  </si>
+  <si>
+    <t>Desplegar lista de operadores con sus respectivos reportes</t>
   </si>
 </sst>
 </file>
@@ -1269,10 +1305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:M40"/>
+  <dimension ref="B5:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2224,6 +2260,206 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="9"/>
+    </row>
+    <row r="41" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="6">
+        <v>29</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="9"/>
+    </row>
+    <row r="42" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="6">
+        <v>30</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="9"/>
+    </row>
+    <row r="43" spans="2:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="6">
+        <v>31</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="9"/>
+    </row>
+    <row r="44" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="6">
+        <v>32</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="9"/>
+    </row>
+    <row r="45" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="6">
+        <v>33</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="9"/>
+    </row>
+    <row r="46" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="6">
+        <v>34</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="9"/>
+    </row>
+    <row r="47" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="6">
+        <v>35</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="9"/>
+    </row>
+    <row r="48" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="6">
+        <v>36</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/docs/especificaciones/casos-de-prueba/Casos-de-Prueba-Parte-5.xlsx
+++ b/docs/especificaciones/casos-de-prueba/Casos-de-Prueba-Parte-5.xlsx
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="114">
   <si>
     <t xml:space="preserve">RESULTADO OBTENIDO </t>
   </si>
@@ -486,6 +486,33 @@
   </si>
   <si>
     <t>Desplegar lista de operadores con sus respectivos reportes</t>
+  </si>
+  <si>
+    <t>Horarios personal</t>
+  </si>
+  <si>
+    <t>Cambiar horarios de personal médico</t>
+  </si>
+  <si>
+    <t>Cambiar horarios de funcionarios</t>
+  </si>
+  <si>
+    <t>Cambiar horarios de personal no ingresado</t>
+  </si>
+  <si>
+    <t>Ingresar Rut de personal médico y modificar horarios</t>
+  </si>
+  <si>
+    <t>Ingresar Rut de funcionario</t>
+  </si>
+  <si>
+    <t>Ingresar Rut de alguien no ingresado en el sistema</t>
+  </si>
+  <si>
+    <t>Cambiar horarios</t>
+  </si>
+  <si>
+    <t>Desplegar mensaje de que este tipo de personal no puede cambiar sus horarios</t>
   </si>
 </sst>
 </file>
@@ -707,7 +734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -739,6 +766,30 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1305,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:M48"/>
+  <dimension ref="B5:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1326,116 +1377,116 @@
   <sheetData>
     <row r="5" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="19"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="15"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="15"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
     </row>
     <row r="9" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="16">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="22">
         <v>42703</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="17"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="23"/>
     </row>
     <row r="10" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="19"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="2:13" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="23"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="1" t="s">
         <v>2</v>
       </c>
@@ -2377,20 +2428,28 @@
       <c r="K44" s="4"/>
       <c r="L44" s="9"/>
     </row>
-    <row r="45" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B45" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="D45" s="6">
         <v>33</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="F45" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="I45" s="4" t="s">
         <v>14</v>
       </c>
@@ -2398,20 +2457,28 @@
       <c r="K45" s="4"/>
       <c r="L45" s="9"/>
     </row>
-    <row r="46" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" ht="51" x14ac:dyDescent="0.2">
       <c r="B46" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="D46" s="6">
         <v>34</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+      <c r="F46" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="I46" s="4" t="s">
         <v>14</v>
       </c>
@@ -2419,47 +2486,34 @@
       <c r="K46" s="4"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B47" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="6">
+    <row r="47" spans="2:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="12">
         <v>35</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="9"/>
-    </row>
-    <row r="48" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B48" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="6">
-        <v>36</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="9"/>
+      <c r="E47" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="16">
